--- a/CaseStudy.xlsx
+++ b/CaseStudy.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,11 +437,16 @@
           <t>var2</t>
         </is>
       </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>var3</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>00000001</t>
+          <t>Case00000001</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -454,7 +459,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>00000002</t>
+          <t>Case00000002</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -467,7 +472,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>00000003</t>
+          <t>Case00000003</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -480,7 +485,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>00000004</t>
+          <t>Case00000004</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -493,7 +498,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>00000005</t>
+          <t>Case00000005</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -506,7 +511,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>00000006</t>
+          <t>Case00000006</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -519,7 +524,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>00000007</t>
+          <t>Case00000007</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -532,7 +537,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>00000008</t>
+          <t>Case00000008</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -545,7 +550,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>00000009</t>
+          <t>Case00000009</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -558,7 +563,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>00000010</t>
+          <t>Case00000010</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -571,7 +576,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>00000011</t>
+          <t>Case00000011</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -584,7 +589,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>00000012</t>
+          <t>Case00000012</t>
         </is>
       </c>
       <c r="B13" t="n">
